--- a/data/trans_bre/PCS12_SP_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 15,98</t>
+          <t>0,44; 15,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 14,21</t>
+          <t>-1,28; 14,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 5,06</t>
+          <t>-8,28; 5,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 2,82</t>
+          <t>-8,43; 3,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 42,66</t>
+          <t>1,16; 41,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 43,34</t>
+          <t>-3,34; 42,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 15,95</t>
+          <t>-22,29; 18,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 6,8</t>
+          <t>-17,42; 8,12</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 8,59</t>
+          <t>-5,77; 7,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 4,44</t>
+          <t>-11,4; 4,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 11,99</t>
+          <t>-1,98; 11,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 8,41</t>
+          <t>-4,55; 8,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 24,2</t>
+          <t>-13,11; 22,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,11; 10,98</t>
+          <t>-23,83; 9,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 42,48</t>
+          <t>-5,44; 39,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 21,05</t>
+          <t>-9,63; 21,71</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 21,51</t>
+          <t>2,38; 20,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 13,6</t>
+          <t>-1,06; 13,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 12,67</t>
+          <t>-5,63; 12,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 12,0</t>
+          <t>-34,24; 12,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 51,89</t>
+          <t>5,55; 49,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 29,11</t>
+          <t>-1,91; 28,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 31,37</t>
+          <t>-12,79; 30,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 24,87</t>
+          <t>-39,23; 25,71</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 10,69</t>
+          <t>1,73; 10,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 5,21</t>
+          <t>-4,04; 5,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 5,23</t>
+          <t>-3,72; 5,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 32,75</t>
+          <t>2,16; 33,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 23,04</t>
+          <t>3,5; 23,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 11,44</t>
+          <t>-8,15; 11,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 12,53</t>
+          <t>-8,35; 12,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 71,37</t>
+          <t>4,34; 73,84</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 15,56</t>
+          <t>1,94; 16,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,77; 21,3</t>
+          <t>10,02; 21,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,13; 18,85</t>
+          <t>7,85; 18,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 10,05</t>
+          <t>-13,39; 9,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 35,94</t>
+          <t>3,49; 36,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,51; 48,93</t>
+          <t>19,75; 51,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,14; 48,54</t>
+          <t>17,4; 47,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 19,28</t>
+          <t>-23,92; 18,71</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,39; 52,54</t>
+          <t>42,24; 52,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,52; 42,98</t>
+          <t>29,84; 42,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,61; 38,46</t>
+          <t>26,68; 38,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,92; 44,4</t>
+          <t>26,2; 45,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>193,86; 382,46</t>
+          <t>194,03; 393,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>107,35; 228,8</t>
+          <t>102,32; 219,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>101,07; 225,08</t>
+          <t>103,49; 236,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>81,83; 331,8</t>
+          <t>83,36; 340,75</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,17; 17,01</t>
+          <t>12,04; 16,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,72</t>
+          <t>7,67; 12,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,07</t>
+          <t>6,25; 10,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 12,46</t>
+          <t>-6,03; 12,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,6; 41,12</t>
+          <t>27,12; 39,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,36; 29,77</t>
+          <t>16,84; 29,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,38; 29,16</t>
+          <t>15,45; 29,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 26,67</t>
+          <t>-10,73; 26,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PCS12_SP_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
